--- a/Data/Municipios6.xlsx
+++ b/Data/Municipios6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hdtorres\Documents\Homicide_Esri\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA9523A-1714-4BBE-B479-AE70BDF74816}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FC7451-E890-4390-B1FD-898539D9B6F3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="918" firstSheet="14" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="918" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="05059" sheetId="10" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="05206" sheetId="9" r:id="rId4"/>
     <sheet name="05306" sheetId="7" r:id="rId5"/>
     <sheet name="05541" sheetId="5" r:id="rId6"/>
-    <sheet name="05670" sheetId="3" r:id="rId7"/>
+    <sheet name=" 05670" sheetId="3" r:id="rId7"/>
     <sheet name="05861" sheetId="6" r:id="rId8"/>
     <sheet name="13268" sheetId="11" r:id="rId9"/>
     <sheet name="17388" sheetId="12" r:id="rId10"/>
@@ -27,12 +27,12 @@
     <sheet name="17442" sheetId="14" r:id="rId12"/>
     <sheet name="17662" sheetId="15" r:id="rId13"/>
     <sheet name="85010" sheetId="16" r:id="rId14"/>
-    <sheet name="85139" sheetId="17" r:id="rId15"/>
+    <sheet name=" 85139" sheetId="17" r:id="rId15"/>
     <sheet name="85263" sheetId="18" r:id="rId16"/>
     <sheet name="85325" sheetId="34" r:id="rId17"/>
     <sheet name="25120" sheetId="19" r:id="rId18"/>
     <sheet name="41078" sheetId="20" r:id="rId19"/>
-    <sheet name="41349" sheetId="21" r:id="rId20"/>
+    <sheet name=" 41349" sheetId="21" r:id="rId20"/>
     <sheet name="44420" sheetId="22" r:id="rId21"/>
     <sheet name="47288" sheetId="23" r:id="rId22"/>
     <sheet name="50150" sheetId="24" r:id="rId23"/>
@@ -46,7 +46,7 @@
     <sheet name="76845" sheetId="32" r:id="rId31"/>
     <sheet name="76377" sheetId="33" r:id="rId32"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -506,7 +506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -3830,7 +3830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
